--- a/test/fixture/testcase.xlsx
+++ b/test/fixture/testcase.xlsx
@@ -53,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -65,12 +65,17 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -118,17 +123,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1381,17 +1389,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109" style="1" customWidth="1"/>
-    <col min="5" max="256" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -1407,6 +1416,7 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -1415,10 +1425,11 @@
       <c r="B2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s" s="2">
         <v>6</v>
       </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -1427,10 +1438,18 @@
       <c r="B3" s="2">
         <v>12345</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" t="s" s="2">
         <v>7</v>
       </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
